--- a/DNS PUBLICO/Aplicaciones y Puertos.xlsx
+++ b/DNS PUBLICO/Aplicaciones y Puertos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t xml:space="preserve">DNS Publico </t>
   </si>
@@ -38,12 +38,15 @@
     <t>Puerto</t>
   </si>
   <si>
-    <t>Dominio</t>
+    <t>Subdominio</t>
   </si>
   <si>
     <t>Aplicación</t>
   </si>
   <si>
+    <t xml:space="preserve">Descripción </t>
+  </si>
+  <si>
     <t>Producción</t>
   </si>
   <si>
@@ -56,56 +59,143 @@
     <t>login</t>
   </si>
   <si>
+    <t>Plataforma de Administración y Control de Usuarios, Accesos</t>
+  </si>
+  <si>
     <t>https://sfytg.nl.gob.mx/pdrmye</t>
   </si>
   <si>
     <t>pdrmye</t>
   </si>
   <si>
+    <t>Plataforma de Distribución de Recursos</t>
+  </si>
+  <si>
     <t>http://10.210.0.27/</t>
   </si>
   <si>
-    <t>https://sfytg.nl.gob.mx/Api_AdSisUs</t>
+    <t>https://sfytg_api.nl.gob.mx/Api_AdSisUs</t>
   </si>
   <si>
     <t>Api_AdSisUs</t>
   </si>
   <si>
-    <t>https://sfytg.nl.gob.mx/ApiDoc</t>
+    <t>Servicios para la Plataforma de Distribución de Recursos</t>
+  </si>
+  <si>
+    <t>https://sfytg_api.nl.gob.mx/ApiDoc</t>
   </si>
   <si>
     <t>ApiDoc</t>
   </si>
   <si>
+    <t>Servicios para el Manejo de Información de los Documentos</t>
+  </si>
+  <si>
     <t>https://api.docelect.nl.gob.mx</t>
   </si>
   <si>
     <t>api_sat</t>
   </si>
   <si>
+    <t>Backend Laravel del Aplicativo de Documentación Eléctronica</t>
+  </si>
+  <si>
     <t>https://firma.docelect.nl.gob.mx</t>
   </si>
   <si>
     <t>Firma</t>
   </si>
   <si>
+    <r>
+      <t xml:space="preserve">Micro Servicio Python el cual incrusta archivos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en pdfs así Creando la Firma</t>
+    </r>
+  </si>
+  <si>
     <t>https://docelect.nl.gob.mx</t>
   </si>
   <si>
     <t>DocElect</t>
   </si>
   <si>
+    <t>Frontend React del Aplicativo de Documentación Eléctronica</t>
+  </si>
+  <si>
     <t>https://sign.docelect.nl.gob.mx</t>
   </si>
   <si>
     <t>signdocs_fiel</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Micro Servicio Node JS que Valida los </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> del Usuario</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +219,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -138,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,21 +249,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -444,223 +564,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
         <v>80</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="4">
+        <v>81</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3">
-        <v>81</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="4">
+        <v>80</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3">
-        <v>80</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="4">
         <v>90</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>8080</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="D13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4">
         <v>9090</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3">
+      <c r="B15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
         <v>3000</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="D15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
         <v>4000</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1"/>
     <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B9" r:id="rId4"/>
-    <hyperlink ref="B10" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="D9" r:id="rId8"/>
-    <hyperlink ref="D10" r:id="rId9"/>
-    <hyperlink ref="B13" r:id="rId10"/>
-    <hyperlink ref="B14" r:id="rId11"/>
-    <hyperlink ref="B15" r:id="rId12"/>
-    <hyperlink ref="D13" r:id="rId13"/>
-    <hyperlink ref="D14" r:id="rId14"/>
-    <hyperlink ref="D15" r:id="rId15"/>
-    <hyperlink ref="B16" r:id="rId16"/>
-    <hyperlink ref="D16" r:id="rId17"/>
+    <hyperlink ref="B9" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
+    <hyperlink ref="B13" r:id="rId8"/>
+    <hyperlink ref="B14" r:id="rId9"/>
+    <hyperlink ref="B15" r:id="rId10"/>
+    <hyperlink ref="D13" r:id="rId11"/>
+    <hyperlink ref="D14" r:id="rId12"/>
+    <hyperlink ref="D15" r:id="rId13"/>
+    <hyperlink ref="B16" r:id="rId14"/>
+    <hyperlink ref="D16" r:id="rId15"/>
+    <hyperlink ref="D10" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>